--- a/biology/Médecine/Ptôse/Ptôse.xlsx
+++ b/biology/Médecine/Ptôse/Ptôse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pt%C3%B4se</t>
+          <t>Ptôse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La ptôse ou ptose (du grec ancien πτῶσις / ptôsis, « chute ») est la position anormalement basse occupée par un organe ou une partie d'organe, résultant de sa descente progressive par gravité.
 La ptôse palpébrale, ou blépharoptose ou encore ptosis, est l'abaissement de la paupière supérieure, qui peut être accompagnée d'une ptôse du sourcil.
 La ptôse mammaire est l'affaissement des seins.
-La ptôse gastrique, ou gastroptose, est un allongement vertical anormal de l'estomac, avec abaissement en position debout. Elle s'accompagne d'un retard d'évacuation du contenu gastrique[1].
+La ptôse gastrique, ou gastroptose, est un allongement vertical anormal de l'estomac, avec abaissement en position debout. Elle s'accompagne d'un retard d'évacuation du contenu gastrique.
 La ptôse rénale, appelée aussi néphroptose, est la position anormalement basse d'un rein, sans modification de l'origine du pédicule qui assure sa vascularisation. Elle s'oppose ici à l'ectopie rénale : le rein est alors bas car sa formation ne s'est pas effectuée au bon endroit, et son pédicule naît lui aussi plus bas.
 La ptôse intestinale, ou entéroptose, ou splanchnoptose, est l'abaissement d'une partie quelconque de l'intestin (surtout du colon transverse).
 La ptôse de l'utérus, ou métroptose, ou hystéroptose, ou utéroptose, est la descente de l'utérus.
